--- a/Switches n stuff.xlsx
+++ b/Switches n stuff.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikster\Desktop\LHR\Controls-DashboardPCB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E24666-DE6C-4136-AE80-7C5FB602E75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3591" yWindow="4397" windowWidth="20572" windowHeight="12026" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -18,10 +27,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="&quot;Aptos Narrow&quot;, sans-serif"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>100SP3T4B1M1QEH E-Switch | Switches | DigiKey</t>
     </r>
@@ -32,10 +41,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="&quot;Aptos Narrow&quot;, sans-serif"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>TE1-1A-DC-1-AL Switch Components | Switches | DigiKey Marketplace</t>
     </r>
@@ -46,10 +55,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="&quot;Aptos Narrow&quot;, sans-serif"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>KFB2DNA1BBB ZF Electronics | Switches | DigiKey</t>
     </r>
@@ -60,10 +69,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="&quot;Aptos Narrow&quot;, sans-serif"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>100SP3T4B1M1QEH E-Switch | Switches | DigiKey</t>
     </r>
@@ -72,38 +81,43 @@
     <t>Ignition switch</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="&quot;Aptos Narrow&quot;, sans-serif"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>RM103772BCB C&amp;K | Switches | DigiKey</t>
-    </r>
+    <t>https://www.digikey.com/en/products/detail/c-k/A10305RNZQ/2055101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="&quot;Aptos Narrow&quot;, sans-serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,42 +125,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -336,63 +357,93 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -408,12 +459,12 @@
     <mergeCell ref="C5:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C1"/>
-    <hyperlink r:id="rId2" ref="C2"/>
-    <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="C4"/>
-    <hyperlink r:id="rId5" ref="C5"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{84ED3337-AE64-4A5C-81B7-8881D7D5F3CA}"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Switches n stuff.xlsx
+++ b/Switches n stuff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikster\Desktop\LHR\Controls-DashboardPCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E24666-DE6C-4136-AE80-7C5FB602E75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8B0346-6691-401C-806E-3AB64DB90F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3591" yWindow="4397" windowWidth="20572" windowHeight="12026" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Indicator switch</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/c-k/A10305RNZQ/2055101</t>
+  </si>
+  <si>
+    <t>Amazon.com: Yohii 40 Pcs DC 50V 0.5A 3 Position Vertical Slide Switch 4 Pin SS13F11 Solder Lug Pin- (G7.23) : Industrial &amp; Scientific</t>
   </si>
 </sst>
 </file>
@@ -141,9 +144,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -370,78 +374,80 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="1"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -464,6 +470,7 @@
     <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{84ED3337-AE64-4A5C-81B7-8881D7D5F3CA}"/>
+    <hyperlink ref="H1" r:id="rId6" display="https://www.amazon.com/Yohii-Position-Vertical-Switch-SS13F11/dp/B07DNY27QB/ref=sr_1_11?crid=37FHDP7FPF998&amp;dib=eyJ2IjoiMSJ9.TmZHZGk3Hvvx_lyV6egheLU8wpUW1gQXKpK-pVoJM0YZhkksUHUBJKWiqwUQi9bXQUORBZ2FODAFGmqAx6kqR6BlfXK0BtXjfCogJMSNTGW_MvnyhMWbwwaFqZ6fDFfCzxAb2L5atYpxXBCXKbFj6BSlr-hKSALaJ9IvesXQGrzCAYdJ6u8L8nnwryZ1bUGBm8-7ZAXqObLHUMq_ZAx0SIk7rcdBataxrNZY30aDggI.Qg3lDAXLtPyvzHrJ3-Vu5ofHJ0HbOo4L6fDoAegk49o&amp;dib_tag=se&amp;keywords=large+3+position+slide+switch&amp;qid=1732387852&amp;sprefix=large3+position+slide+switch%2Caps%2C136&amp;sr=8-11" xr:uid="{A4D9C4F5-2B3F-415B-AF42-A7DA6814405E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Switches n stuff.xlsx
+++ b/Switches n stuff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikster\Desktop\LHR\Controls-DashboardPCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8B0346-6691-401C-806E-3AB64DB90F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20438D2-CDCB-41A0-88E4-379B29085445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Indicator switch</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Amazon.com: Yohii 40 Pcs DC 50V 0.5A 3 Position Vertical Slide Switch 4 Pin SS13F11 Solder Lug Pin- (G7.23) : Industrial &amp; Scientific</t>
+  </si>
+  <si>
+    <t>JN2UEENAGX E-Switch | Mouser</t>
   </si>
 </sst>
 </file>
@@ -371,15 +374,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -395,7 +398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -408,8 +411,11 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -423,7 +429,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -437,7 +443,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -471,6 +477,7 @@
     <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{84ED3337-AE64-4A5C-81B7-8881D7D5F3CA}"/>
     <hyperlink ref="H1" r:id="rId6" display="https://www.amazon.com/Yohii-Position-Vertical-Switch-SS13F11/dp/B07DNY27QB/ref=sr_1_11?crid=37FHDP7FPF998&amp;dib=eyJ2IjoiMSJ9.TmZHZGk3Hvvx_lyV6egheLU8wpUW1gQXKpK-pVoJM0YZhkksUHUBJKWiqwUQi9bXQUORBZ2FODAFGmqAx6kqR6BlfXK0BtXjfCogJMSNTGW_MvnyhMWbwwaFqZ6fDFfCzxAb2L5atYpxXBCXKbFj6BSlr-hKSALaJ9IvesXQGrzCAYdJ6u8L8nnwryZ1bUGBm8-7ZAXqObLHUMq_ZAx0SIk7rcdBataxrNZY30aDggI.Qg3lDAXLtPyvzHrJ3-Vu5ofHJ0HbOo4L6fDoAegk49o&amp;dib_tag=se&amp;keywords=large+3+position+slide+switch&amp;qid=1732387852&amp;sprefix=large3+position+slide+switch%2Caps%2C136&amp;sr=8-11" xr:uid="{A4D9C4F5-2B3F-415B-AF42-A7DA6814405E}"/>
+    <hyperlink ref="I2" r:id="rId7" display="https://www.mouser.com/ProductDetail/E-Switch/JN2UEENAGX?qs=%252BZnE%2FxbLNR81sZ2W8kOt9Q%3D%3D" xr:uid="{1E28E210-299F-4167-810A-487F35F35F00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Switches n stuff.xlsx
+++ b/Switches n stuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikster\Desktop\LHR\Controls-DashboardPCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20438D2-CDCB-41A0-88E4-379B29085445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4A5CED-4333-41AF-B886-E2AC7A5C5A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Indicator switch</t>
+  </si>
+  <si>
+    <t>Hazard switch</t>
+  </si>
+  <si>
+    <t>Cruse buttons</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="&quot;Aptos Narrow&quot;, sans-serif"/>
+      </rPr>
+      <t>KFB2DNA1BBB ZF Electronics | Switches | DigiKey</t>
+    </r>
+  </si>
+  <si>
+    <t>Gear switch</t>
   </si>
   <si>
     <r>
@@ -36,48 +56,6 @@
     </r>
   </si>
   <si>
-    <t>Hazard switch</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="&quot;Aptos Narrow&quot;, sans-serif"/>
-      </rPr>
-      <t>TE1-1A-DC-1-AL Switch Components | Switches | DigiKey Marketplace</t>
-    </r>
-  </si>
-  <si>
-    <t>Cruse buttons</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="&quot;Aptos Narrow&quot;, sans-serif"/>
-      </rPr>
-      <t>KFB2DNA1BBB ZF Electronics | Switches | DigiKey</t>
-    </r>
-  </si>
-  <si>
-    <t>Gear switch</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="&quot;Aptos Narrow&quot;, sans-serif"/>
-      </rPr>
-      <t>100SP3T4B1M1QEH E-Switch | Switches | DigiKey</t>
-    </r>
-  </si>
-  <si>
     <t>Ignition switch</t>
   </si>
   <si>
@@ -88,6 +66,9 @@
   </si>
   <si>
     <t>JN2UEENAGX E-Switch | Mouser</t>
+  </si>
+  <si>
+    <t>slide version</t>
   </si>
 </sst>
 </file>
@@ -377,7 +358,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -387,41 +368,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -431,25 +397,30 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -458,26 +429,23 @@
       <c r="H5" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{84ED3337-AE64-4A5C-81B7-8881D7D5F3CA}"/>
-    <hyperlink ref="H1" r:id="rId6" display="https://www.amazon.com/Yohii-Position-Vertical-Switch-SS13F11/dp/B07DNY27QB/ref=sr_1_11?crid=37FHDP7FPF998&amp;dib=eyJ2IjoiMSJ9.TmZHZGk3Hvvx_lyV6egheLU8wpUW1gQXKpK-pVoJM0YZhkksUHUBJKWiqwUQi9bXQUORBZ2FODAFGmqAx6kqR6BlfXK0BtXjfCogJMSNTGW_MvnyhMWbwwaFqZ6fDFfCzxAb2L5atYpxXBCXKbFj6BSlr-hKSALaJ9IvesXQGrzCAYdJ6u8L8nnwryZ1bUGBm8-7ZAXqObLHUMq_ZAx0SIk7rcdBataxrNZY30aDggI.Qg3lDAXLtPyvzHrJ3-Vu5ofHJ0HbOo4L6fDoAegk49o&amp;dib_tag=se&amp;keywords=large+3+position+slide+switch&amp;qid=1732387852&amp;sprefix=large3+position+slide+switch%2Caps%2C136&amp;sr=8-11" xr:uid="{A4D9C4F5-2B3F-415B-AF42-A7DA6814405E}"/>
-    <hyperlink ref="I2" r:id="rId7" display="https://www.mouser.com/ProductDetail/E-Switch/JN2UEENAGX?qs=%252BZnE%2FxbLNR81sZ2W8kOt9Q%3D%3D" xr:uid="{1E28E210-299F-4167-810A-487F35F35F00}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{84ED3337-AE64-4A5C-81B7-8881D7D5F3CA}"/>
+    <hyperlink ref="C1" r:id="rId4" display="https://www.amazon.com/Yohii-Position-Vertical-Switch-SS13F11/dp/B07DNY27QB/ref=sr_1_11?crid=37FHDP7FPF998&amp;dib=eyJ2IjoiMSJ9.TmZHZGk3Hvvx_lyV6egheLU8wpUW1gQXKpK-pVoJM0YZhkksUHUBJKWiqwUQi9bXQUORBZ2FODAFGmqAx6kqR6BlfXK0BtXjfCogJMSNTGW_MvnyhMWbwwaFqZ6fDFfCzxAb2L5atYpxXBCXKbFj6BSlr-hKSALaJ9IvesXQGrzCAYdJ6u8L8nnwryZ1bUGBm8-7ZAXqObLHUMq_ZAx0SIk7rcdBataxrNZY30aDggI.Qg3lDAXLtPyvzHrJ3-Vu5ofHJ0HbOo4L6fDoAegk49o&amp;dib_tag=se&amp;keywords=large+3+position+slide+switch&amp;qid=1732387852&amp;sprefix=large3+position+slide+switch%2Caps%2C136&amp;sr=8-11" xr:uid="{A4D9C4F5-2B3F-415B-AF42-A7DA6814405E}"/>
+    <hyperlink ref="C2" r:id="rId5" display="https://www.mouser.com/ProductDetail/E-Switch/JN2UEENAGX?qs=%252BZnE%2FxbLNR81sZ2W8kOt9Q%3D%3D" xr:uid="{1E28E210-299F-4167-810A-487F35F35F00}"/>
+    <hyperlink ref="I4" r:id="rId6" display="https://www.amazon.com/Yohii-Position-Vertical-Switch-SS13F11/dp/B07DNY27QB/ref=sr_1_1?crid=1IVIIMRQI2HJS&amp;dib=eyJ2IjoiMSJ9.eq4ebiQlMkKEDFRAdhDxYwMIiYvkEjVZD_9xjgnfgCxXy-tZctG5FY5V9etNlcsO9SMg3hhRud0UZ8EvzB1QN5VE4UDG5s6WWWARvN8WRjMmnUkjLekKzcGdvc8ia7Sv9FLgmE0_jsopAeiuapqWnA.1wpn46VPwZhyZ5ITniFuaUG9biDjYCx3dxWY7euUJM8&amp;dib_tag=se&amp;keywords=SS13F11&amp;qid=1732484796&amp;sprefix=ss13f11%2Caps%2C110&amp;sr=8-1" xr:uid="{063A32BF-A86E-4AB2-A81A-F6E783D026AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
